--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3046107791021697</v>
+        <v>0.2951171082160937</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3046107791021697, 'ngram_match_score': 0.14060532850371524, 'weighted_ngram_match_score': 0.172099391280491, 'syntax_match_score': 0.5133333333333333, 'dataflow_match_score': 0.3924050632911392}</t>
+          <t>{'codebleu': 0.2951171082160937, 'ngram_match_score': 0.14060532850371524, 'weighted_ngram_match_score': 0.172099391280491, 'syntax_match_score': 0.5133333333333333, 'dataflow_match_score': 0.35443037974683544}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2951171082160937</v>
+        <v>0.298281665178119</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2951171082160937, 'ngram_match_score': 0.14060532850371524, 'weighted_ngram_match_score': 0.172099391280491, 'syntax_match_score': 0.5133333333333333, 'dataflow_match_score': 0.35443037974683544}</t>
+          <t>{'codebleu': 0.29828166517811905, 'ngram_match_score': 0.14060532850371524, 'weighted_ngram_match_score': 0.172099391280491, 'syntax_match_score': 0.5133333333333333, 'dataflow_match_score': 0.3670886075949367}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
